--- a/flows/work/.tag/转人工审批原因.xlsx
+++ b/flows/work/.tag/转人工审批原因.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\flows\work\.tag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C3268-387C-41AE-92B8-24B6FC1DA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6B4BA0-6C42-461E-A792-F0ED1B638EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="1035" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="150">
   <si>
     <t>图片链接</t>
   </si>
@@ -28,10 +28,448 @@
     <t>转人工审批原因</t>
   </si>
   <si>
-    <t>https://www.example.com/invoice3.jpg</t>
-  </si>
-  <si>
-    <t>Low Image Recognition</t>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ba885fa0-fbb1-4f7b-b681-fab66fc1bf5e_a0.jpg</t>
+  </si>
+  <si>
+    <t>无法识别供应商 人工审批</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7b854267-3912-4023-a428-c9baac569f8c_a1.jpg</t>
+  </si>
+  <si>
+    <t>无法识别发票 错误码：{10909} 人工审批</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fa286028-f3d8-4f31-b356-51681e38e8c7_a102.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0e90dc37-7de1-4462-a5c2-58d212e667d7_a104.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/672b3327-e8d2-456d-8071-123ef8099020_a105.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/db566598-213a-47ed-ac13-92af5a5e8baa_a11.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/23ade77b-7852-4dac-94e0-dfdc5f655d3d_a112.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/16f457d9-d0c3-4069-bba7-85e3fee7d5de_a115.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d44c6f75-10e3-48df-a428-e8a4c47cd44d_a124.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0691f9ba-7ca4-490b-ba25-88e13ecdf866_a126.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c7c92852-e955-4b08-9a15-9e3aaca6c1b5_a13.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ca82124f-e2a9-4009-85ee-13d3a39217d2_a132.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4e4b7088-63a6-49fb-afe6-5b088d4277d8_a136.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/065a4f0b-1a3e-4e1d-8fba-f8a3ffb19d87_a137.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8bdc1974-91fb-44bb-a4d7-b3b46d77b2a4_a14.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ae7a48d2-5c40-42e8-bf8c-fd0e4ccf7de3_a141.jpg</t>
+  </si>
+  <si>
+    <t>无法识别开票日期 人工审批</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/64a6733d-22aa-4f0e-b0a9-2a396d9aba52_a143.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5a326f91-597e-4677-a0d8-644e08ea7bea_a15.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0f0bfcf0-eddb-40c3-a596-3b0c7cbac69e_a150.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7579896d-b62d-4e65-bd84-56feed915465_a157.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/80b32c70-6ff6-4dd0-a82b-912270af3898_a160.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/951ca074-c7dd-4629-bf11-7d1b22417374_a168.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8a7d7d05-75c8-4da9-aff2-2b73244f2b70_a17.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/461779d5-309d-4be3-8127-8e9faa86c0e2_a172.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/64337ca1-fe61-4ac1-b263-4451295db922_a173.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/60d600f5-f125-476a-a0fd-29cfb0aa882d_a175.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f314920f-7e15-4bba-b6a2-3fb385de32f3_a176.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/874a3299-0713-4d5c-aa83-2db67b664b8c_a179.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/dd9c353c-72cc-4ca0-a604-842a76db1e93_a181.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e05d6bbb-63de-47c2-be9b-bfe55ff4c3ae_a183.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b8c285b9-dc95-4570-80ba-cf95b5f8e0e5_a185.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ffc91861-6212-4a8b-be7e-2cd7d2cffdb9_a190.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8ceb60e4-92a5-4c31-aebc-e5cc714db4e0_a191.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/434c1b74-dfa1-4231-86da-bc63973e3b3a_a192.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d3f6a473-b179-43ad-898e-a92509f6b97e_a196.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f65f87a4-eb32-497c-9e57-5d0500ab5a5d_a2.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b83303d5-b523-4de7-8246-6383741f0537_a200.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ff52de77-f6ee-4a6c-b611-afb6fdea421c_a201.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/8c8837e5-5bcf-455d-a1af-dff6d67cf990_a202.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/69ee8af7-f9a3-47f6-bdee-badf9e97283a_a203.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7e9d70f4-c24d-44a3-b0c8-bb0baa636aa8_a205.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/112edfcf-f911-40ed-b163-b5d3566ce929_a208.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c77c5912-1cdb-429a-b454-70d259d7daa0_a21.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6ec8a363-0e49-45be-bc27-fa01453b6267_a210.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b8577f01-7c1c-403c-a71a-231d2d8933d2_a211.jpg</t>
+  </si>
+  <si>
+    <t>无法识别客户 人工审批</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4a86f9f0-8c8c-41e9-870b-577b9ff19e89_a212.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d7651b10-a4a6-49d4-ada5-51901842874e_a213.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6304d9f8-17e4-4c83-924e-a98de57512f2_a214.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/686e96b6-b7b3-4b09-921e-cbb1d4670ac9_a215.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9ca8044b-fced-45cb-8dd9-ce75f630304d_a217.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7555c168-6450-4951-bb51-2c8e319ebe59_a219.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4376e5b1-e628-4811-99f9-774f8e9d2071_a220.jpg</t>
+  </si>
+  <si>
+    <t>无法识别金额 人工审批</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/76558400-a06d-49e0-a827-7f90a85d3b23_a224.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/cffe5246-c7a0-4399-a11a-8701a1dd228a_a225.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9d4b1751-37ee-4cfe-ab78-6640cf1c3a0d_a23.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/cdfe6c8e-e67e-4b31-a838-b3e406eaaf66_a236.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fc6abab1-fb79-48e3-98e2-22191ba95fe6_a237.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b922b0a5-b22a-4443-af25-5cea57c5a767_a246.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a7ccda7e-596f-46ec-a43f-f42dc9dc4b76_a25.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/eb2780b8-49ac-4d11-a007-0a5ce1acf058_a257.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/15da9589-1fb7-4135-bc90-ffb0b8ea16e3_a26.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/37b57945-115a-45cb-b474-a26627be418b_a263.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5dccd912-8823-4d04-bcad-6e248b3913b0_a266.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3c7c2fdc-0172-4382-88fe-9746cf6c87f7_a268.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ff5662cb-07fe-416d-be6f-523c4816fd91_a269.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ea18a49c-e2c1-4d11-afae-b71432b18cac_a27.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7e024dad-db0d-412a-9b24-14601fa7e618_a270.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7ab8cef6-1b62-4556-a9e0-ea2b015b4f42_a271.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c5d8392a-2984-4c37-a7df-58d25f32d3f6_a272.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2fa1d90f-daee-4755-b22c-69dda66443aa_a273.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/074c2b81-0563-44af-88f7-b06948c59644_a274.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fd956769-e3e2-4030-a89e-05d746342472_a276.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/39545afe-48a2-4ab4-8259-d80114b5fdd9_a277.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6cfb968b-7495-4634-af47-9fff69127402_a28.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c966be8e-db20-43a3-b31b-780cd9c7df0f_a281.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e3b1cd30-b7fb-40dc-a5b2-1852590ae41c_a283.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7aa5158f-0e85-4d33-96dd-66ee57f5b52e_a286.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3c71a674-7458-4ff3-a508-25b4d2023d61_a289.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/df7d141c-bf22-4915-b936-696ccf7bbe82_a292.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/88810213-4f00-4c33-8c06-aff5312c7e94_a296.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ce73a89e-2971-4760-a5db-32b268942be0_a302.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/961397fe-a9c8-488f-81db-22202e130fa3_a304.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bff3f7de-09ac-47e8-99ee-f009b23aceff_a306.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/409a2940-8e56-492c-9d6b-02c9a6fd5b86_a309.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e3618868-5fa5-454b-9144-c4f58262cd92_a312.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/22fba832-7fce-4135-802f-da8dda89ef9d_a315.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/017a274d-1a5b-4521-b626-36d89081ce0d_a316.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6a123366-3e16-493a-8927-99161070f806_a319.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/29c5a584-feb8-4230-8571-8b344f1f0f6c_a320.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3b2e11e0-a961-4474-8ff2-4f43e5af19f1_a322.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3fe3e779-ea0f-4a94-91c6-e2f46a7f0837_a325.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2620a90d-58fd-4a55-814e-bcce79f404ef_a328.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/85ff5412-359d-48b2-8276-931ba54a72a1_a329.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/72fefc3a-7a22-4c9a-b8d2-02520afc6280_a33.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ec93bed9-f315-4e73-bb7f-4f76e9feb4d3_a333.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6707671a-d839-45e2-a4fd-57d4b01755ff_a336.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/49593071-eb53-4661-85dc-b6ecb22a7009_a34.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/db7ddce4-fc3a-48d6-833c-d246c38090d5_a35.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/00e6b714-3270-4a68-b07a-7e40093af68b_a36.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6ceac11b-0969-4424-8a18-d8d41d607361_a37.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/2345b7b9-3b70-4722-8838-3599af70afe4_a38.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/45397be8-670d-4bc0-85a9-50e1462d231c_a39.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/63e5b7f6-a3e1-4939-9c5f-5f2095c73853_a4.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9de086ac-d148-46eb-b6cc-b400ed23357b_a41.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/bebf1a8f-47b6-4f88-9d59-f3cc1689a3e5_a43.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0d369db4-75bf-43cb-aac7-8d4c803b7090_a44.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ccd57a88-0299-4c16-a02a-da778a3fc721_a45.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b2960df4-304f-403c-b1b3-a844622a303f_a46.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e85abf92-70af-47e8-9047-91ae1166fb1a_a47.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4b831cc9-e044-4e42-a47d-8338fd7aca5e_a5.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0ecfd854-3bde-49e5-85f6-276646fe5816_a50.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/9d31bcb4-12d8-40ac-835a-d77c42a74d5c_a53.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ce32ccfb-0b61-424b-a585-07b62491e9ce_a57.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/d1e25339-65dd-4ddf-9211-ad6e038777be_a59.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4f435ef7-c614-4a23-b3ad-1fe16152a2a8_a60.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/26d62491-9957-45c7-b569-3bb8dbfe87ea_a61.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/f95cb0cc-fc53-4ad3-8e12-aa195c33f5b5_a63.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6490dc9a-4642-4771-8d04-b8d6d4013445_a65.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/44b84a74-e390-41b4-bfa8-63d54a4d7f01_a66.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/fe4c473f-4463-448f-8b52-af85f97d516a_a68.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/e8a86724-8fdd-4377-ae0c-c2d13674f8eb_a7.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/55c3fbee-075d-47d1-9a9b-c8c63742404f_a70.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b2806d3b-d4be-4506-be88-e813931b05cd_a71.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/5e5680eb-a24d-40e2-9a51-9b9731cd7341_a72.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/0137cfe0-c2d7-478d-a48d-a349da6d3511_a76.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/a408ada1-1926-43a6-8e7a-4ee11dc09b79_a79.jpg</t>
+  </si>
+  <si>
+    <t>付款方疑似识别不清 人工审批</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/b1dcda70-855b-45f4-b8d0-a797d9c5a542_a8.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3209a401-036b-41ab-baf2-24ee78442b8b_a82.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/614678c6-71b3-4b93-8e5c-36b7c65b0232_a88.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/4c292fc5-d4b3-4b0d-8c5e-19a757159b0f_a90.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/1b4921b1-62cd-4e3c-aae9-f590568f7717_a91.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/3bf3f0a5-2f2f-476f-99cc-4c50b604fab4_a94.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/7d2eb13c-f831-46dc-845a-7b976c792ba2_a95.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/12116450-a3ea-4d7a-a877-9681ca7cdf2d_a96.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/868cd731-0e61-43a1-8d97-434cc92ed49d_b73.jpg</t>
+  </si>
+  <si>
+    <t>无法识别发票 错误码：{11201} 人工审批</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/c1b8af39-28cd-49df-99e9-6e46ca1c50e3_b78.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6acd842e-4441-4dfb-8527-afdbaa93fce8_b81.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/87ae6b07-9d65-43c5-9ac6-592c0572cfaa_b85.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/ab046b8c-218b-44c4-86fb-b88575769452_b9.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/419c875c-b122-4d40-b813-90cc9a5d092b_b93.jpg</t>
+  </si>
+  <si>
+    <t>https://pub-ce1d5c660acc49b7a41bc63e2faf2d60.r2.dev/6b5dd524-fda8-40c0-9dad-b6294c9fe5a2_b98.jpg</t>
   </si>
 </sst>
 </file>
@@ -401,11 +839,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="108.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -421,6 +864,1126 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
